--- a/output/LBY.xlsx
+++ b/output/LBY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,27 +456,47 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4. Agriculture land area (% of land area)</t>
+          <t>4. Agriculture land area (% of land area)_x</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>4. Agriculture land area (% of land area)_y</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>5. Average precipitation (mm)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>7. Fertilizer consumption (kilograms per hectare of arable land)</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>13. Population</t>
+          <t>7. Fertilizer consumption (kilograms per hectare of arable land)_x</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)</t>
+          <t>7. Fertilizer consumption (kilograms per hectare of arable land)_y</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>13. Population_x</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>13. Population_y</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)_x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)_y</t>
         </is>
       </c>
     </row>
@@ -487,29 +507,1076 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>69.36</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.786387351</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.786387351</v>
+      </c>
+      <c r="G2" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46.85082873</v>
+      </c>
+      <c r="I2" t="n">
+        <v>46.85082873</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4341971</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4341971</v>
+      </c>
+      <c r="L2" t="n">
+        <v>14.4185088884291</v>
+      </c>
+      <c r="M2" t="n">
+        <v>14.4185088884291</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>68.16</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.789229003000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8.789229003000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>23.61</v>
+      </c>
+      <c r="H3" t="n">
+        <v>47.43801653</v>
+      </c>
+      <c r="I3" t="n">
+        <v>47.43801653</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4444820</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4444820</v>
+      </c>
+      <c r="L3" t="n">
+        <v>14.4043977845747</v>
+      </c>
+      <c r="M3" t="n">
+        <v>14.4043977845747</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.789229003000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8.789229003000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="H4" t="n">
+        <v>61.10192837</v>
+      </c>
+      <c r="I4" t="n">
+        <v>61.10192837</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4544970</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4544970</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14.5874769902376</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14.5874769902376</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>74.4</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.794912307000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8.794912307000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>40.82191781</v>
+      </c>
+      <c r="I5" t="n">
+        <v>40.82191781</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4641296</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4641296</v>
+      </c>
+      <c r="L5" t="n">
+        <v>14.444925151997</v>
+      </c>
+      <c r="M5" t="n">
+        <v>14.444925151997</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8.817645520999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8.817645520999999</v>
+      </c>
+      <c r="G6" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="H6" t="n">
+        <v>47.59358289</v>
+      </c>
+      <c r="I6" t="n">
+        <v>47.59358289</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4733063</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4733063</v>
+      </c>
+      <c r="L6" t="n">
+        <v>14.6743533173802</v>
+      </c>
+      <c r="M6" t="n">
+        <v>14.6743533173802</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.903463405</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8.903463405</v>
+      </c>
+      <c r="G7" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="H7" t="n">
+        <v>30.76923077</v>
+      </c>
+      <c r="I7" t="n">
+        <v>30.76923077</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4820066</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4820066</v>
+      </c>
+      <c r="L7" t="n">
+        <v>14.4847637425573</v>
+      </c>
+      <c r="M7" t="n">
+        <v>14.4847637425573</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.903463405</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8.903463405</v>
+      </c>
+      <c r="G8" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="H8" t="n">
+        <v>30.42406312</v>
+      </c>
+      <c r="I8" t="n">
+        <v>30.42406312</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4902346</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4902346</v>
+      </c>
+      <c r="L8" t="n">
+        <v>14.4915439047684</v>
+      </c>
+      <c r="M8" t="n">
+        <v>14.4915439047684</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>21.77</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8.780704048</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8.780704048</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>27.82369146</v>
+      </c>
+      <c r="I9" t="n">
+        <v>27.82369146</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4980962</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4980962</v>
+      </c>
+      <c r="L9" t="n">
+        <v>14.2838750633606</v>
+      </c>
+      <c r="M9" t="n">
+        <v>14.2838750633606</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8.780704048</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8.780704048</v>
+      </c>
+      <c r="G10" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="H10" t="n">
+        <v>47.6584022</v>
+      </c>
+      <c r="I10" t="n">
+        <v>47.6584022</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5057998</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5057998</v>
+      </c>
+      <c r="L10" t="n">
+        <v>14.4715767259097</v>
+      </c>
+      <c r="M10" t="n">
+        <v>14.4715767259097</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>84.5</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.780704048</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8.780704048</v>
+      </c>
+      <c r="G11" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>30.3030303</v>
+      </c>
+      <c r="I11" t="n">
+        <v>30.3030303</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5154790</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5154790</v>
+      </c>
+      <c r="L11" t="n">
+        <v>14.188696847837</v>
+      </c>
+      <c r="M11" t="n">
+        <v>14.188696847837</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8.780704048</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8.780704048</v>
+      </c>
+      <c r="G12" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="H12" t="n">
+        <v>40.33057851</v>
+      </c>
+      <c r="I12" t="n">
+        <v>40.33057851</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5275916</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5275916</v>
+      </c>
+      <c r="L12" t="n">
+        <v>14.0674956903538</v>
+      </c>
+      <c r="M12" t="n">
+        <v>14.0674956903538</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8.780704048</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8.780704048</v>
+      </c>
+      <c r="G13" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35.99719008</v>
+      </c>
+      <c r="I13" t="n">
+        <v>35.99719008</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5405326</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5405326</v>
+      </c>
+      <c r="L13" t="n">
+        <v>14.1884050335136</v>
+      </c>
+      <c r="M13" t="n">
+        <v>14.1884050335136</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8.780704048</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8.780704048</v>
+      </c>
+      <c r="G14" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="H14" t="n">
+        <v>19.54710193</v>
+      </c>
+      <c r="I14" t="n">
+        <v>19.54710193</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5542641</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5542641</v>
+      </c>
+      <c r="L14" t="n">
+        <v>13.7042276843965</v>
+      </c>
+      <c r="M14" t="n">
+        <v>13.7042276843965</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8.743762574</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8.743762574</v>
+      </c>
+      <c r="G15" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="H15" t="n">
+        <v>28.82708571</v>
+      </c>
+      <c r="I15" t="n">
+        <v>28.82708571</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5687563</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5687563</v>
+      </c>
+      <c r="L15" t="n">
+        <v>13.3590751537205</v>
+      </c>
+      <c r="M15" t="n">
+        <v>13.3590751537205</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8.743762574</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8.743762574</v>
+      </c>
+      <c r="G16" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="H16" t="n">
+        <v>29.98030286</v>
+      </c>
+      <c r="I16" t="n">
+        <v>29.98030286</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5837986</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5837986</v>
+      </c>
+      <c r="L16" t="n">
+        <v>12.8528466098557</v>
+      </c>
+      <c r="M16" t="n">
+        <v>12.8528466098557</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8.743762574</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8.743762574</v>
+      </c>
+      <c r="G17" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="H17" t="n">
+        <v>31.46355429</v>
+      </c>
+      <c r="I17" t="n">
+        <v>31.46355429</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5973369</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5973369</v>
+      </c>
+      <c r="L17" t="n">
+        <v>12.4868564007143</v>
+      </c>
+      <c r="M17" t="n">
+        <v>12.4868564007143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8.743762574</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8.743762574</v>
+      </c>
+      <c r="G18" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="H18" t="n">
+        <v>30.44354857</v>
+      </c>
+      <c r="I18" t="n">
+        <v>30.44354857</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6097177</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6097177</v>
+      </c>
+      <c r="L18" t="n">
+        <v>11.9405118100659</v>
+      </c>
+      <c r="M18" t="n">
+        <v>11.9405118100659</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>22.35</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8.743762574</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8.743762574</v>
+      </c>
+      <c r="G19" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="H19" t="n">
+        <v>29.42041714</v>
+      </c>
+      <c r="I19" t="n">
+        <v>29.42041714</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6228370</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6228370</v>
+      </c>
+      <c r="L19" t="n">
+        <v>11.8653339684795</v>
+      </c>
+      <c r="M19" t="n">
+        <v>11.8653339684795</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8.743762574</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8.743762574</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="H20" t="n">
+        <v>33.48867429</v>
+      </c>
+      <c r="I20" t="n">
+        <v>33.48867429</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6360191</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6360191</v>
+      </c>
+      <c r="L20" t="n">
+        <v>11.5854671416939</v>
+      </c>
+      <c r="M20" t="n">
+        <v>11.5854671416939</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8.724439342</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8.724439342</v>
+      </c>
+      <c r="G21" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="H21" t="n">
+        <v>38.55588578</v>
+      </c>
+      <c r="I21" t="n">
+        <v>38.55588578</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6491988</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6491988</v>
+      </c>
+      <c r="L21" t="n">
+        <v>11.3072119985121</v>
+      </c>
+      <c r="M21" t="n">
+        <v>11.3072119985121</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8.724439342</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8.724439342</v>
+      </c>
+      <c r="G22" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="H22" t="n">
+        <v>47.1669289</v>
+      </c>
+      <c r="I22" t="n">
+        <v>47.1669289</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6188132</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6188132</v>
+      </c>
+      <c r="L22" t="n">
+        <v>9.919388310270421</v>
+      </c>
+      <c r="M22" t="n">
+        <v>9.919388310270421</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>100.26</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8.726712664000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8.726712664000001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="H23" t="n">
+        <v>47.97383721</v>
+      </c>
+      <c r="I23" t="n">
+        <v>47.97383721</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5869870</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5869870</v>
+      </c>
+      <c r="L23" t="n">
+        <v>10.5851733658712</v>
+      </c>
+      <c r="M23" t="n">
+        <v>10.5851733658712</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="E24" t="n">
+        <v>8.726712664000001</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8.726712664000001</v>
+      </c>
+      <c r="G24" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="H24" t="n">
+        <v>36.20805814</v>
+      </c>
+      <c r="I24" t="n">
+        <v>36.20805814</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5985221</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5985221</v>
+      </c>
+      <c r="L24" t="n">
+        <v>10.5954165075576</v>
+      </c>
+      <c r="M24" t="n">
+        <v>10.5954165075576</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>2014</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>100.06</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D25" t="n">
         <v>22.5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E25" t="n">
         <v>8.723871012</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F25" t="n">
+        <v>8.723871012</v>
+      </c>
+      <c r="G25" t="n">
         <v>20.97</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H25" t="n">
         <v>22.91705233</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I25" t="n">
+        <v>22.91705233</v>
+      </c>
+      <c r="J25" t="n">
         <v>6097764</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K25" t="n">
+        <v>6097764</v>
+      </c>
+      <c r="L25" t="n">
+        <v>10.4797852635819</v>
+      </c>
+      <c r="M25" t="n">
         <v>10.4797852635819</v>
       </c>
     </row>

--- a/output/LBY.xlsx
+++ b/output/LBY.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>4. Agriculture land area (% of land area)</t>
+          <t>3. Agricultural land area (sq. km)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -488,7 +488,7 @@
         <v>100.06</v>
       </c>
       <c r="D2" t="n">
-        <v>8.723871012</v>
+        <v>153500.0000045448</v>
       </c>
       <c r="E2" t="n">
         <v>56</v>
@@ -516,7 +516,7 @@
         <v>98.5</v>
       </c>
       <c r="D3" t="n">
-        <v>8.723871012</v>
+        <v>153500.0000045448</v>
       </c>
       <c r="E3" t="n">
         <v>56</v>
@@ -544,7 +544,7 @@
         <v>101.44</v>
       </c>
       <c r="D4" t="n">
-        <v>8.723871012</v>
+        <v>153500.0000045448</v>
       </c>
       <c r="E4" t="n">
         <v>56</v>
@@ -572,7 +572,7 @@
         <v>99.31</v>
       </c>
       <c r="D5" t="n">
-        <v>8.723871012</v>
+        <v>153500.0000045448</v>
       </c>
       <c r="E5" t="n">
         <v>56</v>
@@ -600,7 +600,7 @@
         <v>99.17</v>
       </c>
       <c r="D6" t="n">
-        <v>8.723871012</v>
+        <v>153500.0000045448</v>
       </c>
       <c r="E6" t="n">
         <v>56</v>
@@ -628,7 +628,7 @@
         <v>96.44</v>
       </c>
       <c r="D7" t="n">
-        <v>8.723871012</v>
+        <v>153500.0000045448</v>
       </c>
       <c r="E7" t="n">
         <v>56</v>
@@ -656,7 +656,7 @@
         <v>99.84999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>8.723871012</v>
+        <v>153500.0000045448</v>
       </c>
       <c r="E8" t="n">
         <v>56</v>
@@ -684,7 +684,7 @@
         <v>98.84999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>8.723871012</v>
+        <v>153500.0000045448</v>
       </c>
       <c r="E9" t="n">
         <v>56</v>

--- a/output/LBY.xlsx
+++ b/output/LBY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,27 +451,102 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3. Agricultural land area (sq. km)</t>
+          <t>1. Mean air temperature</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>10. PM2.5 air pollution, mean annual exposure (micrograms per cubic meter)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>11. Arable land (hectares)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>12. Livestock production index (2014-2016 = 100)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>13. Population</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>14. Fertilizers by Nutrient (phosphate P2O5)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>16. Population living in slums (% of urban population)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>18. Temperature change on land</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>19. Fertilizers by Nutrient (nitrogen N)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2. Energy use in agriculture</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>20. Agriculture land area (sq. km)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>21. Employment in agriculture</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>3. Land area (sq. km)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>4. Agriculture land area (% of land area)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>5. Average precipitation (mm per year)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>6. Permanent cropland (% of land area)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>7. Fertilizer consumption (kilograms per hectare of arable land)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>13. Population</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)</t>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>8. Annual freshwater withdrawals, total (billion cubic meters)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>9. Fertilizers by Nutrient (potash K2O)</t>
         </is>
       </c>
     </row>
@@ -482,26 +557,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100.06</v>
-      </c>
+        <v>1950</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>153500.0000045448</v>
-      </c>
-      <c r="E2" t="n">
-        <v>56</v>
-      </c>
-      <c r="F2" t="n">
-        <v>22.91705233</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6097764</v>
-      </c>
-      <c r="H2" t="n">
-        <v>10.4797852635819</v>
-      </c>
+        <v>21.17</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -510,26 +590,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C3" t="n">
-        <v>98.5</v>
-      </c>
+        <v>1951</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>153500.0000045448</v>
-      </c>
-      <c r="E3" t="n">
-        <v>56</v>
-      </c>
-      <c r="F3" t="n">
-        <v>15.67295349</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6192235</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10.0197914039068</v>
-      </c>
+        <v>21.34</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -538,26 +623,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C4" t="n">
-        <v>101.44</v>
-      </c>
+        <v>1952</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>153500.0000045448</v>
-      </c>
-      <c r="E4" t="n">
-        <v>56</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15.6408314</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6282196</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9.99742295573097</v>
-      </c>
+        <v>21.25</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -566,26 +656,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C5" t="n">
-        <v>99.31</v>
-      </c>
+        <v>1953</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>153500.0000045448</v>
-      </c>
-      <c r="E5" t="n">
-        <v>56</v>
-      </c>
-      <c r="F5" t="n">
-        <v>26.05164535</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6378261</v>
-      </c>
-      <c r="H5" t="n">
-        <v>9.62885623381846</v>
-      </c>
+        <v>21.27</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -594,26 +689,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C6" t="n">
-        <v>99.17</v>
-      </c>
+        <v>1954</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>153500.0000045448</v>
-      </c>
-      <c r="E6" t="n">
-        <v>56</v>
-      </c>
-      <c r="F6" t="n">
-        <v>16.41567442</v>
-      </c>
-      <c r="G6" t="n">
-        <v>6477793</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9.485808885490639</v>
-      </c>
+        <v>21.21</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -622,26 +722,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C7" t="n">
-        <v>96.44</v>
-      </c>
+        <v>1955</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>153500.0000045448</v>
-      </c>
-      <c r="E7" t="n">
-        <v>56</v>
-      </c>
-      <c r="F7" t="n">
-        <v>18.10996512</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6569088</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9.494313646235719</v>
-      </c>
+        <v>21.31</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -650,26 +755,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C8" t="n">
-        <v>99.84999999999999</v>
-      </c>
+        <v>1956</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>153500.0000045448</v>
-      </c>
-      <c r="E8" t="n">
-        <v>56</v>
-      </c>
-      <c r="F8" t="n">
-        <v>18.48314535</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6653942</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9.626270671647729</v>
-      </c>
+        <v>21.26</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -678,26 +788,4121 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>1957</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1959</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1960</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>1426986</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1478760</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1500</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>-0.417</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6.348250111</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>-0.417</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.588235294</v>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>1710000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1535157</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1500</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6.469304477</v>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.339181287</v>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>1710000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1594758</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1569</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1579</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6.58410721</v>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.199415205</v>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="n">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>1715000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>18.13</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1652102</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1957</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>-0.095</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1471</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6.702319925</v>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>-0.095</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.211078717</v>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>1715000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1700072</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2454</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>-0.101</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1707</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6.817122657</v>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>-0.101</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.662390671</v>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="n">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>21.27</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>1720000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1739831</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3485</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2710</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6.935335372</v>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="U18" t="n">
+        <v>3.941860465</v>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="n">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>1720000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1778578</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5068</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>-0.5679999999999999</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3356</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7.050138104</v>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>-0.5679999999999999</v>
+      </c>
+      <c r="U19" t="n">
+        <v>5.300581395</v>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="n">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>1725000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1819393</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5511</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4073</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7.16948748</v>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="U20" t="n">
+        <v>5.966956522</v>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="n">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>1725000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>27.63</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1862823</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4924</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3294</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7.285995203</v>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="U21" t="n">
+        <v>4.99826087</v>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>1725000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30.08</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1909177</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7487</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>-0.226</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4511</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7.402502927</v>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>-0.226</v>
+      </c>
+      <c r="U22" t="n">
+        <v>7.223188406</v>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="n">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>1730000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>27.91</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1958320</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="M23" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7.521852302</v>
+      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="U23" t="n">
+        <v>10.11560694</v>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>1730000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>34.61</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2012796</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8500</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="M24" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7.637223365</v>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="U24" t="n">
+        <v>9.595375723</v>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>1735000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>33.39</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2084256</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>-0.081</v>
+      </c>
+      <c r="M25" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7.75486775</v>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>-0.081</v>
+      </c>
+      <c r="U25" t="n">
+        <v>8.18443804</v>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>39.77</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>1735000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>37.42</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2179446</v>
+      </c>
+      <c r="I26" t="n">
+        <v>10200</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>-0.07099999999999999</v>
+      </c>
+      <c r="M26" t="n">
+        <v>10100</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7.870238812</v>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>-0.07099999999999999</v>
+      </c>
+      <c r="U26" t="n">
+        <v>12.62247839</v>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>46.88</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>1740000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>45.55</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2291841</v>
+      </c>
+      <c r="I27" t="n">
+        <v>19400</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>-0.467</v>
+      </c>
+      <c r="M27" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7.987883197</v>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>-0.467</v>
+      </c>
+      <c r="U27" t="n">
+        <v>20.63218391</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>51.34</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>21.28</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>1740000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2413760</v>
+      </c>
+      <c r="I28" t="n">
+        <v>26600</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>-0.499</v>
+      </c>
+      <c r="M28" t="n">
+        <v>13100</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R28" t="n">
+        <v>8.10325426</v>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>-0.499</v>
+      </c>
+      <c r="U28" t="n">
+        <v>24.94252874</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.254</v>
+      </c>
+      <c r="W28" t="n">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>37.67</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>1745000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>42.19</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2541805</v>
+      </c>
+      <c r="I29" t="n">
+        <v>29600</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="M29" t="n">
+        <v>16700</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R29" t="n">
+        <v>8.220898644</v>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="U29" t="n">
+        <v>29.34097421</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.308</v>
+      </c>
+      <c r="W29" t="n">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>48.95</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>46.19</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2676117</v>
+      </c>
+      <c r="I30" t="n">
+        <v>21600</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>-0.222</v>
+      </c>
+      <c r="M30" t="n">
+        <v>13800</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R30" t="n">
+        <v>8.339111359</v>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="n">
+        <v>-0.222</v>
+      </c>
+      <c r="U30" t="n">
+        <v>21.08571429</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.362</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>45.98</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>53.14</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2816917</v>
+      </c>
+      <c r="I31" t="n">
+        <v>36200</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M31" t="n">
+        <v>22540</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R31" t="n">
+        <v>8.453914091</v>
+      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="U31" t="n">
+        <v>34.36571429</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.416</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>53.14</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>1753000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>56.78</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2962720</v>
+      </c>
+      <c r="I32" t="n">
+        <v>33566</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>-0.061</v>
+      </c>
+      <c r="M32" t="n">
+        <v>18302</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R32" t="n">
+        <v>8.570421815</v>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="n">
+        <v>-0.061</v>
+      </c>
+      <c r="U32" t="n">
+        <v>30.31831147</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>55.32</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>1758000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3112015</v>
+      </c>
+      <c r="I33" t="n">
+        <v>43911</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="M33" t="n">
+        <v>27224</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R33" t="n">
+        <v>8.630096502000001</v>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="U33" t="n">
+        <v>42.28100114</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="W33" t="n">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>57.5</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>1765000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>62.72</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3265457</v>
+      </c>
+      <c r="I34" t="n">
+        <v>49080</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="M34" t="n">
+        <v>35200</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R34" t="n">
+        <v>8.690907851</v>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="U34" t="n">
+        <v>49.11048159</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.128</v>
+      </c>
+      <c r="W34" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>62.4</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>1775000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>65.79000000000001</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3423592</v>
+      </c>
+      <c r="I35" t="n">
+        <v>53262</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>-0.358</v>
+      </c>
+      <c r="M35" t="n">
+        <v>33900</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R35" t="n">
+        <v>8.755129180999999</v>
+      </c>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="n">
+        <v>-0.358</v>
+      </c>
+      <c r="U35" t="n">
+        <v>51.41521127</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.457</v>
+      </c>
+      <c r="W35" t="n">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>58.16</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>1780000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>64.56</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3564547</v>
+      </c>
+      <c r="I36" t="n">
+        <v>44314</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>-0.126</v>
+      </c>
+      <c r="M36" t="n">
+        <v>31900</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R36" t="n">
+        <v>8.760812485000001</v>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>-0.126</v>
+      </c>
+      <c r="U36" t="n">
+        <v>44.89550562</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.786</v>
+      </c>
+      <c r="W36" t="n">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>1787000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>65.31999999999999</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3684313</v>
+      </c>
+      <c r="I37" t="n">
+        <v>39100</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M37" t="n">
+        <v>27800</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R37" t="n">
+        <v>8.767632449000001</v>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U37" t="n">
+        <v>37.884723</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="W37" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>65.22</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>1795000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>64.55</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3800110</v>
+      </c>
+      <c r="I38" t="n">
+        <v>46270</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="M38" t="n">
+        <v>31700</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R38" t="n">
+        <v>8.772179092</v>
+      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="U38" t="n">
+        <v>43.88300836</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="W38" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>63.52</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>62.74</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3911939</v>
+      </c>
+      <c r="I39" t="n">
+        <v>62890</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>-0.08699999999999999</v>
+      </c>
+      <c r="M39" t="n">
+        <v>37800</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R39" t="n">
+        <v>8.775020744000001</v>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="n">
+        <v>-0.08699999999999999</v>
+      </c>
+      <c r="U39" t="n">
+        <v>56.71666667</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3.773</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>65.68000000000001</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4021565</v>
+      </c>
+      <c r="I40" t="n">
+        <v>54200</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="M40" t="n">
+        <v>32500</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R40" t="n">
+        <v>8.775020744000001</v>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="U40" t="n">
+        <v>48.83333333</v>
+      </c>
+      <c r="V40" t="n">
+        <v>4.102</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>1805000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>73.47</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4130042</v>
+      </c>
+      <c r="I41" t="n">
+        <v>47000</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="M41" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R41" t="n">
+        <v>8.777862396</v>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="U41" t="n">
+        <v>43.6565097</v>
+      </c>
+      <c r="V41" t="n">
+        <v>4.431</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="E42" t="n">
+        <v>32.81504928</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1805000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>79.56</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4236983</v>
+      </c>
+      <c r="I42" t="n">
+        <v>41000</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="M42" t="n">
+        <v>35000</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3999.6</v>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R42" t="n">
+        <v>8.783545698999999</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="U42" t="n">
+        <v>42.99168975</v>
+      </c>
+      <c r="V42" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>69.36</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="E43" t="n">
+        <v>33.77157843</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1810000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>79.89</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4341971</v>
+      </c>
+      <c r="I43" t="n">
+        <v>47500</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>14.4185088884291</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="M43" t="n">
+        <v>35000</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3999.6</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R43" t="n">
+        <v>8.786387351</v>
+      </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="U43" t="n">
+        <v>46.85082873</v>
+      </c>
+      <c r="V43" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="W43" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>68.16</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="E44" t="n">
+        <v>34.63959485</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1815000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4444820</v>
+      </c>
+      <c r="I44" t="n">
+        <v>59000</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>14.4043977845747</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.381</v>
+      </c>
+      <c r="M44" t="n">
+        <v>26700</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3999.6</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R44" t="n">
+        <v>8.789229003000001</v>
+      </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="n">
+        <v>-0.381</v>
+      </c>
+      <c r="U44" t="n">
+        <v>47.43801653</v>
+      </c>
+      <c r="V44" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="W44" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="E45" t="n">
+        <v>35.35277733</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1815000</v>
+      </c>
+      <c r="G45" t="n">
+        <v>78.14</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4544970</v>
+      </c>
+      <c r="I45" t="n">
+        <v>71300</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>14.5874769902376</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="M45" t="n">
+        <v>34600</v>
+      </c>
+      <c r="N45" t="n">
+        <v>5000.4</v>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R45" t="n">
+        <v>8.789229003000001</v>
+      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="U45" t="n">
+        <v>61.10192837</v>
+      </c>
+      <c r="V45" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="W45" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>74.4</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="E46" t="n">
+        <v>35.84480466</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1825000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>82.84</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4641296</v>
+      </c>
+      <c r="I46" t="n">
+        <v>44500</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>14.444925151997</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="M46" t="n">
+        <v>24400</v>
+      </c>
+      <c r="N46" t="n">
+        <v>5000.4</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R46" t="n">
+        <v>8.794912307000001</v>
+      </c>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="U46" t="n">
+        <v>40.82191781</v>
+      </c>
+      <c r="V46" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W46" t="n">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="E47" t="n">
+        <v>36.04935563</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1870000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>91.81999999999999</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4733063</v>
+      </c>
+      <c r="I47" t="n">
+        <v>55000</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>14.6743533173802</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="M47" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5000.4</v>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R47" t="n">
+        <v>8.817645520999999</v>
+      </c>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="U47" t="n">
+        <v>47.59358289</v>
+      </c>
+      <c r="V47" t="n">
+        <v>4.55428</v>
+      </c>
+      <c r="W47" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="E48" t="n">
+        <v>36.05874136</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2028000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>97.11</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4820066</v>
+      </c>
+      <c r="I48" t="n">
+        <v>40400</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>14.4847637425573</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="M48" t="n">
+        <v>16600</v>
+      </c>
+      <c r="N48" t="n">
+        <v>6001.2</v>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R48" t="n">
+        <v>8.903463405</v>
+      </c>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="U48" t="n">
+        <v>30.76923077</v>
+      </c>
+      <c r="V48" t="n">
+        <v>4.50856</v>
+      </c>
+      <c r="W48" t="n">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="E49" t="n">
+        <v>36.02771132</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2028000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4902346</v>
+      </c>
+      <c r="I49" t="n">
+        <v>40900</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>14.4915439047684</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="M49" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3999.6</v>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R49" t="n">
+        <v>8.903463405</v>
+      </c>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="U49" t="n">
+        <v>30.42406312</v>
+      </c>
+      <c r="V49" t="n">
+        <v>4.46284</v>
+      </c>
+      <c r="W49" t="n">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>21.77</v>
+      </c>
+      <c r="E50" t="n">
+        <v>35.98360186</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1815000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>99.31</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4980962</v>
+      </c>
+      <c r="I50" t="n">
+        <v>27000</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>14.2838750633606</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="M50" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3999.6</v>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R50" t="n">
+        <v>8.780704048</v>
+      </c>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="U50" t="n">
+        <v>27.82369146</v>
+      </c>
+      <c r="V50" t="n">
+        <v>4.39912</v>
+      </c>
+      <c r="W50" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="E51" t="n">
+        <v>35.95374936</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1815000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>101.02</v>
+      </c>
+      <c r="H51" t="n">
+        <v>5057998</v>
+      </c>
+      <c r="I51" t="n">
+        <v>34700</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>14.4715767259097</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.219</v>
+      </c>
+      <c r="M51" t="n">
+        <v>43600</v>
+      </c>
+      <c r="N51" t="n">
+        <v>5000.4</v>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R51" t="n">
+        <v>8.780704048</v>
+      </c>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="n">
+        <v>1.219</v>
+      </c>
+      <c r="U51" t="n">
+        <v>47.6584022</v>
+      </c>
+      <c r="V51" t="n">
+        <v>4.3534</v>
+      </c>
+      <c r="W51" t="n">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>84.5</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="E52" t="n">
+        <v>35.96549017</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1815000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>94.48</v>
+      </c>
+      <c r="H52" t="n">
+        <v>5154790</v>
+      </c>
+      <c r="I52" t="n">
+        <v>18000</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>14.188696847837</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="M52" t="n">
+        <v>31700</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3999.6</v>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R52" t="n">
+        <v>8.780704048</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="U52" t="n">
+        <v>30.3030303</v>
+      </c>
+      <c r="V52" t="n">
+        <v>4.308</v>
+      </c>
+      <c r="W52" t="n">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="E53" t="n">
+        <v>36.44872242</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1815000</v>
+      </c>
+      <c r="G53" t="n">
+        <v>96.31</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5275916</v>
+      </c>
+      <c r="I53" t="n">
+        <v>47000</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>14.0674956903538</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.292</v>
+      </c>
+      <c r="M53" t="n">
+        <v>20700</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3924</v>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R53" t="n">
+        <v>8.780704048</v>
+      </c>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="n">
+        <v>1.292</v>
+      </c>
+      <c r="U53" t="n">
+        <v>40.33057851</v>
+      </c>
+      <c r="V53" t="n">
+        <v>4.4237</v>
+      </c>
+      <c r="W53" t="n">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>37.62707294</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1815000</v>
+      </c>
+      <c r="G54" t="n">
+        <v>99.14</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5405326</v>
+      </c>
+      <c r="I54" t="n">
+        <v>31355.8</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>14.1884050335136</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="M54" t="n">
+        <v>30800</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3844.8</v>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R54" t="n">
+        <v>8.780704048</v>
+      </c>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="U54" t="n">
+        <v>35.99719008</v>
+      </c>
+      <c r="V54" t="n">
+        <v>4.5394</v>
+      </c>
+      <c r="W54" t="n">
+        <v>3179.1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>22.23</v>
+      </c>
+      <c r="E55" t="n">
+        <v>39.21847106</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1815000</v>
+      </c>
+      <c r="G55" t="n">
+        <v>99.34</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5542641</v>
+      </c>
+      <c r="I55" t="n">
+        <v>11219.09</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>13.7042276843965</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="M55" t="n">
+        <v>23800</v>
+      </c>
+      <c r="N55" t="n">
+        <v>5050.8</v>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R55" t="n">
+        <v>8.780704048</v>
+      </c>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="U55" t="n">
+        <v>19.54710193</v>
+      </c>
+      <c r="V55" t="n">
+        <v>4.6551</v>
+      </c>
+      <c r="W55" t="n">
+        <v>458.9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="E56" t="n">
+        <v>40.94084614</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>101.48</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5687563</v>
+      </c>
+      <c r="I56" t="n">
+        <v>20522.57</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>13.3590751537205</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="M56" t="n">
+        <v>29600</v>
+      </c>
+      <c r="N56" t="n">
+        <v>5076</v>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R56" t="n">
+        <v>8.743762574</v>
+      </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="U56" t="n">
+        <v>28.82708571</v>
+      </c>
+      <c r="V56" t="n">
+        <v>4.7708</v>
+      </c>
+      <c r="W56" t="n">
+        <v>324.83</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="E57" t="n">
+        <v>42.51212754</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>107.27</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5837986</v>
+      </c>
+      <c r="I57" t="n">
+        <v>19734.15</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>12.8528466098557</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="M57" t="n">
+        <v>32000</v>
+      </c>
+      <c r="N57" t="n">
+        <v>10620</v>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R57" t="n">
+        <v>8.743762574</v>
+      </c>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="U57" t="n">
+        <v>29.98030286</v>
+      </c>
+      <c r="V57" t="n">
+        <v>4.8865</v>
+      </c>
+      <c r="W57" t="n">
+        <v>731.38</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="E58" t="n">
+        <v>44.19915562</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="G58" t="n">
+        <v>109.98</v>
+      </c>
+      <c r="H58" t="n">
+        <v>5973369</v>
+      </c>
+      <c r="I58" t="n">
+        <v>22513.39</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>12.4868564007143</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="M58" t="n">
+        <v>32000</v>
+      </c>
+      <c r="N58" t="n">
+        <v>9230.4</v>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R58" t="n">
+        <v>8.743762574</v>
+      </c>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="U58" t="n">
+        <v>31.46355429</v>
+      </c>
+      <c r="V58" t="n">
+        <v>5.005571429</v>
+      </c>
+      <c r="W58" t="n">
+        <v>547.83</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="E59" t="n">
+        <v>46.19497899</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="G59" t="n">
+        <v>117.62</v>
+      </c>
+      <c r="H59" t="n">
+        <v>6097177</v>
+      </c>
+      <c r="I59" t="n">
+        <v>18643.77</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>11.9405118100659</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="M59" t="n">
+        <v>32000</v>
+      </c>
+      <c r="N59" t="n">
+        <v>9723.6</v>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R59" t="n">
+        <v>8.743762574</v>
+      </c>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="U59" t="n">
+        <v>30.44354857</v>
+      </c>
+      <c r="V59" t="n">
+        <v>5.124642857</v>
+      </c>
+      <c r="W59" t="n">
+        <v>2632.44</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>22.35</v>
+      </c>
+      <c r="E60" t="n">
+        <v>48.10683932</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="G60" t="n">
+        <v>114.03</v>
+      </c>
+      <c r="H60" t="n">
+        <v>6228370</v>
+      </c>
+      <c r="I60" t="n">
+        <v>16389.42</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>11.8653339684795</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="M60" t="n">
+        <v>32000</v>
+      </c>
+      <c r="N60" t="n">
+        <v>8031.6</v>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R60" t="n">
+        <v>8.743762574</v>
+      </c>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="U60" t="n">
+        <v>29.42041714</v>
+      </c>
+      <c r="V60" t="n">
+        <v>5.243714286</v>
+      </c>
+      <c r="W60" t="n">
+        <v>3096.31</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="E61" t="n">
+        <v>49.54197828</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="G61" t="n">
+        <v>122.32</v>
+      </c>
+      <c r="H61" t="n">
+        <v>6360191</v>
+      </c>
+      <c r="I61" t="n">
+        <v>24580.91</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>11.5854671416939</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="M61" t="n">
+        <v>32000</v>
+      </c>
+      <c r="N61" t="n">
+        <v>7434</v>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R61" t="n">
+        <v>8.743762574</v>
+      </c>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="U61" t="n">
+        <v>33.48867429</v>
+      </c>
+      <c r="V61" t="n">
+        <v>5.362785714</v>
+      </c>
+      <c r="W61" t="n">
+        <v>2024.27</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="E62" t="n">
+        <v>50.10763757</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1716000</v>
+      </c>
+      <c r="G62" t="n">
+        <v>127.86</v>
+      </c>
+      <c r="H62" t="n">
+        <v>6491988</v>
+      </c>
+      <c r="I62" t="n">
+        <v>32689</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>11.3072119985121</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2.057</v>
+      </c>
+      <c r="M62" t="n">
+        <v>32000</v>
+      </c>
+      <c r="N62" t="n">
+        <v>7912.8</v>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R62" t="n">
+        <v>8.724439342</v>
+      </c>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="n">
+        <v>2.057</v>
+      </c>
+      <c r="U62" t="n">
+        <v>38.55588578</v>
+      </c>
+      <c r="V62" t="n">
+        <v>5.481857143</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1472.9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E63" t="n">
+        <v>36.57342759</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1716000</v>
+      </c>
+      <c r="G63" t="n">
+        <v>126.61</v>
+      </c>
+      <c r="H63" t="n">
+        <v>6188132</v>
+      </c>
+      <c r="I63" t="n">
+        <v>49000</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>9.919388310270421</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="M63" t="n">
+        <v>31900</v>
+      </c>
+      <c r="N63" t="n">
+        <v>6318</v>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R63" t="n">
+        <v>8.724439342</v>
+      </c>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="U63" t="n">
+        <v>47.1669289</v>
+      </c>
+      <c r="V63" t="n">
+        <v>5.600928571</v>
+      </c>
+      <c r="W63" t="n">
+        <v>38.45</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>100.26</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E64" t="n">
+        <v>33.03925847</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1720000</v>
+      </c>
+      <c r="G64" t="n">
+        <v>126.82</v>
+      </c>
+      <c r="H64" t="n">
+        <v>5869870</v>
+      </c>
+      <c r="I64" t="n">
+        <v>49300</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>10.5851733658712</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="M64" t="n">
+        <v>32400</v>
+      </c>
+      <c r="N64" t="n">
+        <v>5378.4</v>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R64" t="n">
+        <v>8.726712664000001</v>
+      </c>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="U64" t="n">
+        <v>47.97383721</v>
+      </c>
+      <c r="V64" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="W64" t="n">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="E65" t="n">
+        <v>41.82876213</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1720000</v>
+      </c>
+      <c r="G65" t="n">
+        <v>125.99</v>
+      </c>
+      <c r="H65" t="n">
+        <v>5985221</v>
+      </c>
+      <c r="I65" t="n">
+        <v>30282.86</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>10.5954165075576</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.271</v>
+      </c>
+      <c r="M65" t="n">
+        <v>31200</v>
+      </c>
+      <c r="N65" t="n">
+        <v>5216.4</v>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R65" t="n">
+        <v>8.726712664000001</v>
+      </c>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="n">
+        <v>1.271</v>
+      </c>
+      <c r="U65" t="n">
+        <v>36.20805814</v>
+      </c>
+      <c r="V65" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="W65" t="n">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>100.06</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>36.29436523</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1720000</v>
+      </c>
+      <c r="G66" t="n">
+        <v>100.56</v>
+      </c>
+      <c r="H66" t="n">
+        <v>6097764</v>
+      </c>
+      <c r="I66" t="n">
+        <v>20856.38</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>10.4797852635819</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.281</v>
+      </c>
+      <c r="M66" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N66" t="n">
+        <v>4338</v>
+      </c>
+      <c r="O66" t="n">
+        <v>153500.0000045448</v>
+      </c>
+      <c r="P66" t="n">
+        <v>639032.5730800023</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R66" t="n">
+        <v>8.723871012</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>1.281</v>
+      </c>
+      <c r="U66" t="n">
+        <v>22.91705233</v>
+      </c>
+      <c r="V66" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1060.95</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>98.5</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>36.08680012</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1720000</v>
+      </c>
+      <c r="G67" t="n">
+        <v>104.98</v>
+      </c>
+      <c r="H67" t="n">
+        <v>6192235</v>
+      </c>
+      <c r="I67" t="n">
+        <v>12000</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>10.0197914039068</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="M67" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4377.6</v>
+      </c>
+      <c r="O67" t="n">
+        <v>153500.0000045448</v>
+      </c>
+      <c r="P67" t="n">
+        <v>620449.0302397083</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R67" t="n">
+        <v>8.723871012</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="U67" t="n">
+        <v>15.67295349</v>
+      </c>
+      <c r="V67" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="W67" t="n">
+        <v>957.48</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>101.44</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>38.1668033</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1720000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>94.45999999999999</v>
+      </c>
+      <c r="H68" t="n">
+        <v>6282196</v>
+      </c>
+      <c r="I68" t="n">
+        <v>10688.06</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>9.99742295573097</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.674</v>
+      </c>
+      <c r="M68" t="n">
+        <v>15700</v>
+      </c>
+      <c r="N68" t="n">
+        <v>4428</v>
+      </c>
+      <c r="O68" t="n">
+        <v>153500.0000045448</v>
+      </c>
+      <c r="P68" t="n">
+        <v>628057.7050280127</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R68" t="n">
+        <v>8.723871012</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>1.674</v>
+      </c>
+      <c r="U68" t="n">
+        <v>15.6408314</v>
+      </c>
+      <c r="V68" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="W68" t="n">
+        <v>514.17</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>33.68592205</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1720000</v>
+      </c>
+      <c r="G69" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="H69" t="n">
+        <v>6378261</v>
+      </c>
+      <c r="I69" t="n">
+        <v>18777.05</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>9.62885623381846</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M69" t="n">
+        <v>25800</v>
+      </c>
+      <c r="N69" t="n">
+        <v>4488.7032</v>
+      </c>
+      <c r="O69" t="n">
+        <v>153500.0000045448</v>
+      </c>
+      <c r="P69" t="n">
+        <v>614153.5819077117</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R69" t="n">
+        <v>8.723871012</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="U69" t="n">
+        <v>26.05164535</v>
+      </c>
+      <c r="V69" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="W69" t="n">
+        <v>231.78</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>41.42097409</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1720000</v>
+      </c>
+      <c r="G70" t="n">
+        <v>108.68</v>
+      </c>
+      <c r="H70" t="n">
+        <v>6477793</v>
+      </c>
+      <c r="I70" t="n">
+        <v>12610.28</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>9.485808885490639</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="M70" t="n">
+        <v>15100</v>
+      </c>
+      <c r="N70" t="n">
+        <v>4555.5444</v>
+      </c>
+      <c r="O70" t="n">
+        <v>153500.0000045448</v>
+      </c>
+      <c r="P70" t="n">
+        <v>614471.0639776906</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R70" t="n">
+        <v>8.723871012</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="U70" t="n">
+        <v>16.41567442</v>
+      </c>
+      <c r="V70" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="W70" t="n">
+        <v>524.6799999999999</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>36.48447322</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1720000</v>
+      </c>
+      <c r="G71" t="n">
+        <v>110.85</v>
+      </c>
+      <c r="H71" t="n">
+        <v>6569088</v>
+      </c>
+      <c r="I71" t="n">
+        <v>15517.5</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>9.494313646235719</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="M71" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N71" t="n">
+        <v>4622.3856</v>
+      </c>
+      <c r="O71" t="n">
+        <v>153500.0000045448</v>
+      </c>
+      <c r="P71" t="n">
+        <v>623689.8184172331</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R71" t="n">
+        <v>8.723871012</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="U71" t="n">
+        <v>18.10996512</v>
+      </c>
+      <c r="V71" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1131.64</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>32.9707065</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1720000</v>
+      </c>
+      <c r="G72" t="n">
+        <v>114.91</v>
+      </c>
+      <c r="H72" t="n">
+        <v>6653942</v>
+      </c>
+      <c r="I72" t="n">
+        <v>16877.72</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>9.626270671647729</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.043</v>
+      </c>
+      <c r="M72" t="n">
+        <v>13700</v>
+      </c>
+      <c r="N72" t="n">
+        <v>4686.5016</v>
+      </c>
+      <c r="O72" t="n">
+        <v>153500.0000045448</v>
+      </c>
+      <c r="P72" t="n">
+        <v>640526.4672544503</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R72" t="n">
+        <v>8.723871012</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>1.043</v>
+      </c>
+      <c r="U72" t="n">
+        <v>18.48314535</v>
+      </c>
+      <c r="V72" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1213.29</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
         <v>2021</v>
       </c>
-      <c r="C9" t="n">
-        <v>98.84999999999999</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>1720000</v>
+      </c>
+      <c r="G73" t="n">
+        <v>118.22</v>
+      </c>
+      <c r="H73" t="n">
+        <v>6735277</v>
+      </c>
+      <c r="I73" t="n">
+        <v>10268.39</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>9.500774199839389</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="M73" t="n">
+        <v>13700</v>
+      </c>
+      <c r="N73" t="n">
+        <v>4686.5016</v>
+      </c>
+      <c r="O73" t="n">
         <v>153500.0000045448</v>
       </c>
-      <c r="E9" t="n">
-        <v>56</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="P73" t="n">
+        <v>639903.4595037164</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1759540</v>
+      </c>
+      <c r="R73" t="n">
+        <v>8.723871012</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="U73" t="n">
         <v>14.72384884</v>
       </c>
-      <c r="G9" t="n">
-        <v>6735277</v>
-      </c>
-      <c r="H9" t="n">
-        <v>9.500774199839389</v>
-      </c>
+      <c r="V73" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1356.63</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>120.54</v>
+      </c>
+      <c r="H74" t="n">
+        <v>6812341</v>
+      </c>
+      <c r="I74" t="n">
+        <v>12914.52</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>9.21016965219091</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="M74" t="n">
+        <v>13700</v>
+      </c>
+      <c r="N74" t="n">
+        <v>4686.5016</v>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="n">
+        <v>1456.1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>LBY</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>6888388</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1.473</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>1.473</v>
+      </c>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
